--- a/biology/Botanique/Kizu_(agrume)/Kizu_(agrume).xlsx
+++ b/biology/Botanique/Kizu_(agrume)/Kizu_(agrume).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kizu ou Kinosu est un agrume mineur, acide, japonais récolté en septembre octobre. Il est cultivé dans les Préfectures de Saga et de Fukuoka. Il s'utilise comme hebesu ou sudachi. 
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citrus kizu hort.ex Y. Tanaka Icon. Jap. Citrus Fruits 2: 411 (1948)[1] INPI n° 771948-1[2] est présent à la Banque génétique du Japon  sous le n°181849[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrus kizu hort.ex Y. Tanaka Icon. Jap. Citrus Fruits 2: 411 (1948) INPI n° 771948-1 est présent à la Banque génétique du Japon  sous le n°181849.
 En japonais: キズ (Kizu) ou 木酢 (Ki zu)  
-D'après Mitsuo Sadamatsu (1996) il est mentionné dans un document conservé au temple Jissouin à Saga et qui date de 1220[4].  
+D'après Mitsuo Sadamatsu (1996) il est mentionné dans un document conservé au temple Jissouin à Saga et qui date de 1220.  
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit vert est de la taille d'un hebesu 5 cm de diamètre 45 à 60 g et 6 cm de diamètre à maturité avec un poids d'environ 100 g. Il a peu de graines et contient, comme Shikuwasa (C. depressa), une grande quantité de nobilétine[5]. La plante n'est pas rustique, les pépiniéristes recommande d'éviter le gel[6]. Des formes tétraploides ont été obtenues en 2004 à Fukuoka[7]
-Ce fruit est peu diffusé, il n'est pas mentionné dans l'Encyclopédie illustrée des fruits mais bien présent dans la liste des agrumes acides du Japon de l'Agriculture Moderne (n°11- novembre 2023)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit vert est de la taille d'un hebesu 5 cm de diamètre 45 à 60 g et 6 cm de diamètre à maturité avec un poids d'environ 100 g. Il a peu de graines et contient, comme Shikuwasa (C. depressa), une grande quantité de nobilétine. La plante n'est pas rustique, les pépiniéristes recommande d'éviter le gel. Des formes tétraploides ont été obtenues en 2004 à Fukuoka
+Ce fruit est peu diffusé, il n'est pas mentionné dans l'Encyclopédie illustrée des fruits mais bien présent dans la liste des agrumes acides du Japon de l'Agriculture Moderne (n°11- novembre 2023).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jus abondant est un condiment aigre-doux qu'on presse sur les aliments pour en faire ressortir la saveur ou bien avec lequel on fait du ponzu[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jus abondant est un condiment aigre-doux qu'on presse sur les aliments pour en faire ressortir la saveur ou bien avec lequel on fait du ponzu.
 </t>
         </is>
       </c>
